--- a/说明文档/项目文档/【开发填写】大屏接口配置汇总.xlsx
+++ b/说明文档/项目文档/【开发填写】大屏接口配置汇总.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\qqtemp\645055898\filerecv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\notes\说明文档\项目文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="67">
   <si>
     <t>规范部分</t>
   </si>
@@ -267,6 +267,22 @@
   </si>
   <si>
     <t>蒙冠州</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>电信诈骗通用接口</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobileCheat</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>MobileCheat</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -814,6 +830,21 @@
     <xf numFmtId="176" fontId="18" fillId="6" borderId="1" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="5" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="6" borderId="5" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="7" borderId="5" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="5" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -828,21 +859,6 @@
     </xf>
     <xf numFmtId="176" fontId="1" fillId="5" borderId="1" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="6" borderId="5" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="6" borderId="5" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="7" borderId="5" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="5" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="56">
@@ -1251,13 +1267,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1283,29 +1299,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="24" t="s">
+      <c r="E1" s="28"/>
+      <c r="F1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25" t="s">
+      <c r="G1" s="29"/>
+      <c r="H1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
       <c r="P1" s="12" t="s">
         <v>4</v>
       </c>
@@ -1654,13 +1670,13 @@
       <c r="C9" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="24" t="s">
         <v>60</v>
       </c>
       <c r="G9" s="10" t="s">
@@ -1672,7 +1688,7 @@
       <c r="I9" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="30" t="s">
+      <c r="J9" s="25" t="s">
         <v>61</v>
       </c>
       <c r="K9" s="11" t="s">
@@ -1681,7 +1697,48 @@
       <c r="L9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="31" t="s">
+      <c r="M9" s="26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="26" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1708,7 +1765,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
